--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/4.TraBH/TBH221215_KimLong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/4.TraBH/TBH221215_KimLong.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$I$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$I$27</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -102,9 +102,6 @@
     <t>Còn BH</t>
   </si>
   <si>
-    <t>Hà Nội, ngày 15 tháng 12 năm 2022</t>
-  </si>
-  <si>
     <t>TG102E</t>
   </si>
   <si>
@@ -112,6 +109,24 @@
   </si>
   <si>
     <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID mới : 1205220036 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID mới : 1205220035 </t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>Hà Nội, ngày 20 tháng 12 năm 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ID mới : 1205220033   </t>
+  </si>
+  <si>
+    <t>Đổi mới thiết bị khác</t>
   </si>
 </sst>
 </file>
@@ -638,7 +653,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -750,6 +765,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -844,12 +868,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1209,10 +1227,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1222,7 +1240,7 @@
     <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="33" style="3" customWidth="1"/>
     <col min="8" max="8" width="34.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="14" style="4" customWidth="1"/>
@@ -1243,108 +1261,108 @@
       <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="47" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="50" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="50" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="53" t="s">
+      <c r="A5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58"/>
     </row>
     <row r="6" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="73"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="76"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="71"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="66"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="68"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="71"/>
       <c r="M9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1364,14 +1382,14 @@
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="70"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="73"/>
       <c r="L11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1411,19 +1429,19 @@
         <v>1</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="41">
         <v>860906041173441</v>
       </c>
-      <c r="D13" s="79"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="80" t="s">
-        <v>29</v>
+      <c r="H13" s="48" t="s">
+        <v>31</v>
       </c>
       <c r="I13" s="26"/>
       <c r="J13" s="11"/>
@@ -1433,19 +1451,19 @@
         <v>2</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="41">
         <v>862549040749635</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="40"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="80" t="s">
-        <v>29</v>
+      <c r="H14" s="48" t="s">
+        <v>31</v>
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="11"/>
@@ -1466,125 +1484,197 @@
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="80" t="s">
-        <v>29</v>
+      <c r="H15" s="48" t="s">
+        <v>28</v>
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33"/>
+      <c r="A16" s="23">
+        <v>4</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="41">
+        <v>21060008</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="25"/>
+      <c r="H16" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="26"/>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36" t="s">
+    <row r="17" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
+        <v>5</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="41">
+        <v>2111043</v>
+      </c>
+      <c r="D17" s="47"/>
+      <c r="E17" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="25"/>
+      <c r="H17" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="26"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
+        <v>6</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="41">
+        <v>2111050</v>
+      </c>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="26"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-    </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="76" t="s">
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+    </row>
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="78" t="s">
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-    </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="15"/>
-    </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="15"/>
-    </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="77" t="s">
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+    </row>
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="77" t="s">
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-    </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-    </row>
-    <row r="65" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+    </row>
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+    </row>
+    <row r="68" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G26:I26"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B11:I11"/>
@@ -1597,7 +1687,7 @@
     <mergeCell ref="A2:E5"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1.5" bottom="1.5" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>